--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_Sieve Bootstrap_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_Sieve Bootstrap_No_Lineal_Estacionario_SETAR.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.647131607821703</v>
+        <v>0.6115226537109912</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.6387781983476837</v>
+        <v>0.610506181469891</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.6444787228878719</v>
+        <v>0.6191905794636839</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.6404604772955071</v>
+        <v>0.6172670560654613</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.6457990525229709</v>
+        <v>0.6069574066118956</v>
       </c>
     </row>
   </sheetData>
